--- a/Assets/Resources/GhostExplainData.xlsx
+++ b/Assets/Resources/GhostExplainData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\project\NightOfSurvival\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A700D9E-E78B-48E5-8575-DD1296AD30F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB0762C-8A14-45ED-9D15-F0FB8988EA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23055" yWindow="0" windowWidth="20280" windowHeight="15600" xr2:uid="{E38BCCD0-162A-4EBB-88D3-8371071A9016}"/>
+    <workbookView xWindow="1785" yWindow="420" windowWidth="23205" windowHeight="15600" xr2:uid="{E38BCCD0-162A-4EBB-88D3-8371071A9016}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,31 +41,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>처녀귀신 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그슨대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그슨대 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>여우누이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>여우누이 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>팔꿈치 귀신</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>팔꿈치귀신 설명</t>
+    <t>어머니와 떡집에서 일하는 평범한 여인.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그슨대의 유래는 아무도 모른다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">여우들이 출몰한다는 여웃골이 있는 마을인 여우마을. 한 평민 부부가 밤에 산책을 가던 중, 아기의 울음소리를 듣는다. 지극히 평범한 아기였다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본래 팔꿈치귀신은 단아한 여인이었다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,7 +433,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -448,28 +448,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
